--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_36_2.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_36_2.xlsx
@@ -522,657 +522,657 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9999421107052562</v>
+        <v>0.9999677858346675</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9990883396074282</v>
+        <v>0.9990493920370204</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9981833106629481</v>
+        <v>0.9998802817037146</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9997769853194208</v>
+        <v>0.999995917576484</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9999080212011452</v>
+        <v>0.9999441719995443</v>
       </c>
       <c r="G2" t="n">
-        <v>5.403711559696127e-05</v>
+        <v>3.007050929946918e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>0.000850994959199587</v>
+        <v>0.0008873508065744985</v>
       </c>
       <c r="I2" t="n">
-        <v>7.493941782915536e-05</v>
+        <v>6.507890550972559e-05</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0001611147851755031</v>
+        <v>2.739584877993008e-06</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0001180271015023292</v>
+        <v>3.390924511278786e-05</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0006778636901225466</v>
+        <v>0.0003164627591308915</v>
       </c>
       <c r="M2" t="n">
-        <v>0.007350994191057511</v>
+        <v>0.005483658386466938</v>
       </c>
       <c r="N2" t="n">
-        <v>1.000047908381857</v>
+        <v>1.000026659998896</v>
       </c>
       <c r="O2" t="n">
-        <v>0.007663941232426586</v>
+        <v>0.005717109076716589</v>
       </c>
       <c r="P2" t="n">
-        <v>125.6516788432612</v>
+        <v>126.8239312479565</v>
       </c>
       <c r="Q2" t="n">
-        <v>190.2520975612758</v>
+        <v>191.4243499659711</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_36_2_1</t>
+          <t>model_36_2_22</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9999431365315705</v>
+        <v>0.9999677858346675</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9990871840132741</v>
+        <v>0.9990493920370204</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9984313394665595</v>
+        <v>0.9998802817037146</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9997465491679781</v>
+        <v>0.999995917576484</v>
       </c>
       <c r="F3" t="n">
-        <v>0.999903440974748</v>
+        <v>0.9999441719995443</v>
       </c>
       <c r="G3" t="n">
-        <v>5.307955176116713e-05</v>
+        <v>3.007050929946918e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0008520736556176761</v>
+        <v>0.0008873508065744985</v>
       </c>
       <c r="I3" t="n">
-        <v>6.470809551751441e-05</v>
+        <v>6.507890550972559e-05</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0001831030865219068</v>
+        <v>2.739584877993008e-06</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0001239044433747269</v>
+        <v>3.390924511278786e-05</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0006750387156268047</v>
+        <v>0.0003164627591308915</v>
       </c>
       <c r="M3" t="n">
-        <v>0.007285571478008237</v>
+        <v>0.005483658386466938</v>
       </c>
       <c r="N3" t="n">
-        <v>1.000047059422148</v>
+        <v>1.000026659998896</v>
       </c>
       <c r="O3" t="n">
-        <v>0.007595733339039118</v>
+        <v>0.005717109076716589</v>
       </c>
       <c r="P3" t="n">
-        <v>125.6874375862517</v>
+        <v>126.8239312479565</v>
       </c>
       <c r="Q3" t="n">
-        <v>190.2878563042663</v>
+        <v>191.4243499659711</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_36_2_2</t>
+          <t>model_36_2_21</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9999425917140121</v>
+        <v>0.9999677858346675</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9990822722645257</v>
+        <v>0.9990493920370204</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9985326053648594</v>
+        <v>0.9998802817037146</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9997167203554592</v>
+        <v>0.999995917576484</v>
       </c>
       <c r="F4" t="n">
-        <v>0.999896670957923</v>
+        <v>0.9999441719995443</v>
       </c>
       <c r="G4" t="n">
-        <v>5.358811503714381e-05</v>
+        <v>3.007050929946918e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0008566585574733737</v>
+        <v>0.0008873508065744985</v>
       </c>
       <c r="I4" t="n">
-        <v>6.053082243633138e-05</v>
+        <v>6.507890550972559e-05</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0002046526217746721</v>
+        <v>2.739584877993008e-06</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0001325917221055017</v>
+        <v>3.390924511278786e-05</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0006720822318114742</v>
+        <v>0.0003164627591308915</v>
       </c>
       <c r="M4" t="n">
-        <v>0.007320390360981019</v>
+        <v>0.005483658386466938</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000047510305645</v>
+        <v>1.000026659998896</v>
       </c>
       <c r="O4" t="n">
-        <v>0.007632034533945075</v>
+        <v>0.005717109076716589</v>
       </c>
       <c r="P4" t="n">
-        <v>125.6683664977117</v>
+        <v>126.8239312479565</v>
       </c>
       <c r="Q4" t="n">
-        <v>190.2687852157264</v>
+        <v>191.4243499659711</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_36_2_3</t>
+          <t>model_36_2_20</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9999410846109784</v>
+        <v>0.9999677858346675</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9990734801944153</v>
+        <v>0.9990493920370204</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9985164001697119</v>
+        <v>0.9998802817037146</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9996898340068492</v>
+        <v>0.999995917576484</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9998888408236558</v>
+        <v>0.9999441719995443</v>
       </c>
       <c r="G5" t="n">
-        <v>5.499492956494608e-05</v>
+        <v>3.007050929946918e-05</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0008648655689942208</v>
+        <v>0.0008873508065744985</v>
       </c>
       <c r="I5" t="n">
-        <v>6.119929550181216e-05</v>
+        <v>6.507890550972559e-05</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0002240764026181912</v>
+        <v>2.739584877993008e-06</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0001426393424640689</v>
+        <v>3.390924511278786e-05</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0006662632698677481</v>
+        <v>0.0003164627591308915</v>
       </c>
       <c r="M5" t="n">
-        <v>0.007415856630554968</v>
+        <v>0.005483658386466938</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000048757563328</v>
+        <v>1.000026659998896</v>
       </c>
       <c r="O5" t="n">
-        <v>0.007731565000257209</v>
+        <v>0.005717109076716589</v>
       </c>
       <c r="P5" t="n">
-        <v>125.6165391334196</v>
+        <v>126.8239312479565</v>
       </c>
       <c r="Q5" t="n">
-        <v>190.2169578514342</v>
+        <v>191.4243499659711</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_36_2_4</t>
+          <t>model_36_2_19</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9999387481831943</v>
+        <v>0.9999677858346675</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9990613340527157</v>
+        <v>0.9990493920370204</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9984077134986447</v>
+        <v>0.9998802817037146</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9996647218977366</v>
+        <v>0.999995917576484</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9998800252694365</v>
+        <v>0.9999441719995443</v>
       </c>
       <c r="G6" t="n">
-        <v>5.717588234412192e-05</v>
+        <v>3.007050929946918e-05</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0008762034591167859</v>
+        <v>0.0008873508065744985</v>
       </c>
       <c r="I6" t="n">
-        <v>6.568267947365909e-05</v>
+        <v>6.507890550972559e-05</v>
       </c>
       <c r="J6" t="n">
-        <v>0.00024221840140716</v>
+        <v>2.739584877993008e-06</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0001539514527068258</v>
+        <v>3.390924511278786e-05</v>
       </c>
       <c r="L6" t="n">
-        <v>0.000657122440899877</v>
+        <v>0.0003164627591308915</v>
       </c>
       <c r="M6" t="n">
-        <v>0.007561473556399038</v>
+        <v>0.005483658386466938</v>
       </c>
       <c r="N6" t="n">
-        <v>1.000050691158736</v>
+        <v>1.000026659998896</v>
       </c>
       <c r="O6" t="n">
-        <v>0.007883381140103052</v>
+        <v>0.005717109076716589</v>
       </c>
       <c r="P6" t="n">
-        <v>125.5387567716661</v>
+        <v>126.8239312479565</v>
       </c>
       <c r="Q6" t="n">
-        <v>190.1391754896808</v>
+        <v>191.4243499659711</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_36_2_5</t>
+          <t>model_36_2_18</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9999357646883223</v>
+        <v>0.9999677858346675</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9990478652042677</v>
+        <v>0.9990493920370204</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9981384942895216</v>
+        <v>0.9998802817037146</v>
       </c>
       <c r="E7" t="n">
-        <v>0.99964572619308</v>
+        <v>0.999995917576484</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9998703514481316</v>
+        <v>0.9999441719995443</v>
       </c>
       <c r="G7" t="n">
-        <v>5.996084384677024e-05</v>
+        <v>3.007050929946918e-05</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0008887760379288385</v>
+        <v>0.0008873508065744985</v>
       </c>
       <c r="I7" t="n">
-        <v>7.678811747487992e-05</v>
+        <v>6.507890550972559e-05</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0002559416633334662</v>
+        <v>2.739584877993008e-06</v>
       </c>
       <c r="K7" t="n">
-        <v>0.000166364890404173</v>
+        <v>3.390924511278786e-05</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0006556786259877283</v>
+        <v>0.0003164627591308915</v>
       </c>
       <c r="M7" t="n">
-        <v>0.00774343876109124</v>
+        <v>0.005483658386466938</v>
       </c>
       <c r="N7" t="n">
-        <v>1.00005316025794</v>
+        <v>1.000026659998896</v>
       </c>
       <c r="O7" t="n">
-        <v>0.008073092980278905</v>
+        <v>0.005717109076716589</v>
       </c>
       <c r="P7" t="n">
-        <v>125.4436376226675</v>
+        <v>126.8239312479565</v>
       </c>
       <c r="Q7" t="n">
-        <v>190.0440563406821</v>
+        <v>191.4243499659711</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_36_2_6</t>
+          <t>model_36_2_17</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9999322186897698</v>
+        <v>0.9999677858346675</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9990351963774063</v>
+        <v>0.9990493920370204</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9977318838300435</v>
+        <v>0.9998802817037146</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9996312903327776</v>
+        <v>0.999995917576484</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9998597521769228</v>
+        <v>0.9999441719995443</v>
       </c>
       <c r="G8" t="n">
-        <v>6.327087784420829e-05</v>
+        <v>3.007050929946918e-05</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0009006018317067076</v>
+        <v>0.0008873508065744985</v>
       </c>
       <c r="I8" t="n">
-        <v>9.356101887032491e-05</v>
+        <v>6.507890550972559e-05</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0002663707100912923</v>
+        <v>2.739584877993008e-06</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0001799658644808086</v>
+        <v>3.390924511278786e-05</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0006817913717973835</v>
+        <v>0.0003164627591308915</v>
       </c>
       <c r="M8" t="n">
-        <v>0.007954299330815272</v>
+        <v>0.005483658386466938</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000056094877432</v>
+        <v>1.000026659998896</v>
       </c>
       <c r="O8" t="n">
-        <v>0.008292930320997642</v>
+        <v>0.005717109076716589</v>
       </c>
       <c r="P8" t="n">
-        <v>125.3361708006583</v>
+        <v>126.8239312479565</v>
       </c>
       <c r="Q8" t="n">
-        <v>189.9365895186729</v>
+        <v>191.4243499659711</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_36_2_7</t>
+          <t>model_36_2_16</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9999283541470151</v>
+        <v>0.9999677858346675</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9990237276424861</v>
+        <v>0.9990493920370204</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9972580725473283</v>
+        <v>0.9998802817037146</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9996194084792471</v>
+        <v>0.999995917576484</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9998487917173923</v>
+        <v>0.9999441719995443</v>
       </c>
       <c r="G9" t="n">
-        <v>6.687825887196922e-05</v>
+        <v>3.007050929946918e-05</v>
       </c>
       <c r="H9" t="n">
-        <v>0.000911307392335426</v>
+        <v>0.0008873508065744985</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0001131059905742832</v>
+        <v>6.507890550972559e-05</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0002749546395172929</v>
+        <v>2.739584877993008e-06</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0001940303150457881</v>
+        <v>3.390924511278786e-05</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0007023250722575079</v>
+        <v>0.0003164627591308915</v>
       </c>
       <c r="M9" t="n">
-        <v>0.008177912867716873</v>
+        <v>0.005483658386466938</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000059293119712</v>
+        <v>1.000026659998896</v>
       </c>
       <c r="O9" t="n">
-        <v>0.008526063549108979</v>
+        <v>0.005717109076716589</v>
       </c>
       <c r="P9" t="n">
-        <v>125.2252732462792</v>
+        <v>126.8239312479565</v>
       </c>
       <c r="Q9" t="n">
-        <v>189.8256919642938</v>
+        <v>191.4243499659711</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_36_2_8</t>
+          <t>model_36_2_15</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9999243657579078</v>
+        <v>0.9999677858346675</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9990136417050626</v>
+        <v>0.9990493920370204</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9967459284129724</v>
+        <v>0.9998802817037146</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9996096857745761</v>
+        <v>0.999995917576484</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9998378238082474</v>
+        <v>0.9999441719995443</v>
       </c>
       <c r="G10" t="n">
-        <v>7.060124503353523e-05</v>
+        <v>3.007050929946918e-05</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0009207221721988721</v>
+        <v>0.0008873508065744985</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0001342322131432642</v>
+        <v>6.507890550972559e-05</v>
       </c>
       <c r="J10" t="n">
-        <v>0.000281978712866714</v>
+        <v>2.739584877993008e-06</v>
       </c>
       <c r="K10" t="n">
-        <v>0.000208104324948434</v>
+        <v>3.390924511278786e-05</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0007180497613372183</v>
+        <v>0.0003164627591308915</v>
       </c>
       <c r="M10" t="n">
-        <v>0.008402454702855305</v>
+        <v>0.005483658386466938</v>
       </c>
       <c r="N10" t="n">
-        <v>1.000062593855525</v>
+        <v>1.000026659998896</v>
       </c>
       <c r="O10" t="n">
-        <v>0.00876016459503493</v>
+        <v>0.005717109076716589</v>
       </c>
       <c r="P10" t="n">
-        <v>125.1169255571693</v>
+        <v>126.8239312479565</v>
       </c>
       <c r="Q10" t="n">
-        <v>189.717344275184</v>
+        <v>191.4243499659711</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_36_2_9</t>
+          <t>model_36_2_14</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.999920172038132</v>
+        <v>0.9999677858346675</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9990034215528094</v>
+        <v>0.9990493920370204</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9962064307362034</v>
+        <v>0.9998802817037146</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9996008948738787</v>
+        <v>0.999995917576484</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9998266767655694</v>
+        <v>0.9999441719995443</v>
       </c>
       <c r="G11" t="n">
-        <v>7.451589836120047e-05</v>
+        <v>3.007050929946918e-05</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0009302622357143784</v>
+        <v>0.0008873508065744985</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0001564867841327432</v>
+        <v>6.507890550972559e-05</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0002883296135056093</v>
+        <v>2.739584877993008e-06</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0002224081988191763</v>
+        <v>3.390924511278786e-05</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0007321527718192934</v>
+        <v>0.0003164627591308915</v>
       </c>
       <c r="M11" t="n">
-        <v>0.00863225916902409</v>
+        <v>0.005483658386466938</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000066064520167</v>
+        <v>1.000026659998896</v>
       </c>
       <c r="O11" t="n">
-        <v>0.008999752313089346</v>
+        <v>0.005717109076716589</v>
       </c>
       <c r="P11" t="n">
-        <v>125.008996109048</v>
+        <v>126.8239312479565</v>
       </c>
       <c r="Q11" t="n">
-        <v>189.6094148270626</v>
+        <v>191.4243499659711</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_36_2_10</t>
+          <t>model_36_2_13</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9999159942936728</v>
+        <v>0.9999677858346675</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9989942588313506</v>
+        <v>0.9990493920370204</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9956632681030071</v>
+        <v>0.9998802817037146</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9995932848979114</v>
+        <v>0.999995917576484</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9998158056397373</v>
+        <v>0.9999441719995443</v>
       </c>
       <c r="G12" t="n">
-        <v>7.841563943209309e-05</v>
+        <v>3.007050929946918e-05</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0009388152339991383</v>
+        <v>0.0008873508065744985</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0001788925365572832</v>
+        <v>6.507890550972559e-05</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0002938273665681848</v>
+        <v>2.739584877993008e-06</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0002363580164729022</v>
+        <v>3.390924511278786e-05</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0007435511374259436</v>
+        <v>0.0003164627591308915</v>
       </c>
       <c r="M12" t="n">
-        <v>0.00885526055133857</v>
+        <v>0.005483658386466938</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000069521963857</v>
+        <v>1.000026659998896</v>
       </c>
       <c r="O12" t="n">
-        <v>0.009232247325925454</v>
+        <v>0.005717109076716589</v>
       </c>
       <c r="P12" t="n">
-        <v>124.9069743358994</v>
+        <v>126.8239312479565</v>
       </c>
       <c r="Q12" t="n">
-        <v>189.507393053914</v>
+        <v>191.4243499659711</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_36_2_11</t>
+          <t>model_36_2_23</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.999911859749204</v>
+        <v>0.9999677858346675</v>
       </c>
       <c r="C13" t="n">
-        <v>0.998985734643524</v>
+        <v>0.9990493920370204</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9951282436766554</v>
+        <v>0.9998802817037146</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9995863482396388</v>
+        <v>0.999995917576484</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9998052518446144</v>
+        <v>0.9999441719995443</v>
       </c>
       <c r="G13" t="n">
-        <v>8.227505520817952e-05</v>
+        <v>3.007050929946918e-05</v>
       </c>
       <c r="H13" t="n">
-        <v>0.000946772189166666</v>
+        <v>0.0008873508065744985</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0002009625835473972</v>
+        <v>6.507890550972559e-05</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0002988386878163407</v>
+        <v>2.739584877993008e-06</v>
       </c>
       <c r="K13" t="n">
-        <v>0.000249900635681869</v>
+        <v>3.390924511278786e-05</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0007531655958358759</v>
+        <v>0.0003164627591308915</v>
       </c>
       <c r="M13" t="n">
-        <v>0.009070559806769345</v>
+        <v>0.005483658386466938</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000072943655831</v>
+        <v>1.000026659998896</v>
       </c>
       <c r="O13" t="n">
-        <v>0.009456712316390815</v>
+        <v>0.005717109076716589</v>
       </c>
       <c r="P13" t="n">
-        <v>124.81088518423</v>
+        <v>126.8239312479565</v>
       </c>
       <c r="Q13" t="n">
-        <v>189.4113039022446</v>
+        <v>191.4243499659711</v>
       </c>
     </row>
     <row r="14">
@@ -1182,657 +1182,657 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.999907752236181</v>
+        <v>0.9999677858346675</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9989774444931165</v>
+        <v>0.9990493920370204</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9946002222846516</v>
+        <v>0.9998802817037146</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9995798806511454</v>
+        <v>0.999995917576484</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9997949441625409</v>
+        <v>0.9999441719995443</v>
       </c>
       <c r="G14" t="n">
-        <v>8.610923831620779e-05</v>
+        <v>3.007050929946918e-05</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0009545106806764706</v>
+        <v>0.0008873508065744985</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0002227437515826088</v>
+        <v>6.507890550972559e-05</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0003035111341682991</v>
+        <v>2.739584877993008e-06</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0002631274428754539</v>
+        <v>3.390924511278786e-05</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0007618408607325734</v>
+        <v>0.0003164627591308915</v>
       </c>
       <c r="M14" t="n">
-        <v>0.009279506361666433</v>
+        <v>0.005483658386466938</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000076342976954</v>
+        <v>1.000026659998896</v>
       </c>
       <c r="O14" t="n">
-        <v>0.009674554158708869</v>
+        <v>0.005717109076716589</v>
       </c>
       <c r="P14" t="n">
-        <v>124.7197877095392</v>
+        <v>126.8239312479565</v>
       </c>
       <c r="Q14" t="n">
-        <v>189.3202064275539</v>
+        <v>191.4243499659711</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_36_2_13</t>
+          <t>model_36_2_10</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9999037800136015</v>
+        <v>0.9999677858346675</v>
       </c>
       <c r="C15" t="n">
-        <v>0.998969870470601</v>
+        <v>0.9990493920370204</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9940916019770759</v>
+        <v>0.9998802817037146</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9995739871531694</v>
+        <v>0.999995917576484</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9997851099266536</v>
+        <v>0.9999441719995443</v>
       </c>
       <c r="G15" t="n">
-        <v>8.981713373372597e-05</v>
+        <v>3.007050929946918e-05</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0009615806982335596</v>
+        <v>0.0008873508065744985</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0002437246143908112</v>
+        <v>6.507890550972559e-05</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0003077688344142071</v>
+        <v>2.739584877993008e-06</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0002757467244025091</v>
+        <v>3.390924511278786e-05</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0007693223446159186</v>
+        <v>0.0003164627591308915</v>
       </c>
       <c r="M15" t="n">
-        <v>0.009477190181363143</v>
+        <v>0.005483658386466938</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000079630333571</v>
+        <v>1.000026659998896</v>
       </c>
       <c r="O15" t="n">
-        <v>0.00988065378787199</v>
+        <v>0.005717109076716589</v>
       </c>
       <c r="P15" t="n">
-        <v>124.6354696040787</v>
+        <v>126.8239312479565</v>
       </c>
       <c r="Q15" t="n">
-        <v>189.2358883220933</v>
+        <v>191.4243499659711</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_36_2_14</t>
+          <t>model_36_2_9</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9998997481577594</v>
+        <v>0.9999677858346675</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9989621508470243</v>
+        <v>0.9990493920370204</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9935771362119118</v>
+        <v>0.9998802817037146</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9995683843393098</v>
+        <v>0.999995917576484</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9997752635623368</v>
+        <v>0.9999441719995443</v>
       </c>
       <c r="G16" t="n">
-        <v>9.358069418435576e-05</v>
+        <v>3.007050929946918e-05</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0009687866279901045</v>
+        <v>0.0008873508065744985</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0002649466054864348</v>
+        <v>6.507890550972559e-05</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0003118165327496166</v>
+        <v>2.739584877993008e-06</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0002883815691180257</v>
+        <v>3.390924511278786e-05</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0007766620406715688</v>
+        <v>0.0003164627591308915</v>
       </c>
       <c r="M16" t="n">
-        <v>0.009673711499954697</v>
+        <v>0.005483658386466938</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000082967041854</v>
+        <v>1.000026659998896</v>
       </c>
       <c r="O16" t="n">
-        <v>0.0100855414258512</v>
+        <v>0.005717109076716589</v>
       </c>
       <c r="P16" t="n">
-        <v>124.5533729089383</v>
+        <v>126.8239312479565</v>
       </c>
       <c r="Q16" t="n">
-        <v>189.1537916269529</v>
+        <v>191.4243499659711</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_36_2_15</t>
+          <t>model_36_2_8</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9998958609837469</v>
+        <v>0.9999677858346675</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9989546817569824</v>
+        <v>0.9990493920370204</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9930838738846502</v>
+        <v>0.9998802817037146</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9995632031395625</v>
+        <v>0.999995917576484</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9997658766919513</v>
+        <v>0.9999441719995443</v>
       </c>
       <c r="G17" t="n">
-        <v>9.720920049768959e-05</v>
+        <v>3.007050929946918e-05</v>
       </c>
       <c r="H17" t="n">
-        <v>0.000975758695689032</v>
+        <v>0.0008873508065744985</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0002852939432993047</v>
+        <v>6.507890550972559e-05</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0003155596400736641</v>
+        <v>2.739584877993008e-06</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0003004267916864844</v>
+        <v>3.390924511278786e-05</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0007836029346187958</v>
+        <v>0.0003164627591308915</v>
       </c>
       <c r="M17" t="n">
-        <v>0.009859472627767147</v>
+        <v>0.005483658386466938</v>
       </c>
       <c r="N17" t="n">
-        <v>1.000086184013451</v>
+        <v>1.000026659998896</v>
       </c>
       <c r="O17" t="n">
-        <v>0.01027921078945317</v>
+        <v>0.005717109076716589</v>
       </c>
       <c r="P17" t="n">
-        <v>124.4772903913028</v>
+        <v>126.8239312479565</v>
       </c>
       <c r="Q17" t="n">
-        <v>189.0777091093174</v>
+        <v>191.4243499659711</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_36_2_16</t>
+          <t>model_36_2_7</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9998919772664085</v>
+        <v>0.9999677858346675</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9989471892572158</v>
+        <v>0.9990493920370204</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9925850364718596</v>
+        <v>0.9998802817037146</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9995586851540412</v>
+        <v>0.999995917576484</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9997565869060283</v>
+        <v>0.9999441719995443</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0001008344801576401</v>
+        <v>3.007050929946918e-05</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0009827526153384973</v>
+        <v>0.0008873508065744985</v>
       </c>
       <c r="I18" t="n">
-        <v>0.000305871256405904</v>
+        <v>6.507890550972559e-05</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0003188236147357793</v>
+        <v>2.739584877993008e-06</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0003123474355708416</v>
+        <v>3.390924511278786e-05</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0007906398141258995</v>
+        <v>0.0003164627591308915</v>
       </c>
       <c r="M18" t="n">
-        <v>0.01004163732454225</v>
+        <v>0.005483658386466938</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000089398124351</v>
+        <v>1.000026659998896</v>
       </c>
       <c r="O18" t="n">
-        <v>0.0104691306145029</v>
+        <v>0.005717109076716589</v>
       </c>
       <c r="P18" t="n">
-        <v>124.4040603915239</v>
+        <v>126.8239312479565</v>
       </c>
       <c r="Q18" t="n">
-        <v>189.0044791095386</v>
+        <v>191.4243499659711</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_36_2_17</t>
+          <t>model_36_2_6</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.999888237193058</v>
+        <v>0.9999677858346675</v>
       </c>
       <c r="C19" t="n">
-        <v>0.998940093670215</v>
+        <v>0.9990493920370204</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9921125997651252</v>
+        <v>0.9998802817037146</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9995540956814458</v>
+        <v>0.999995917576484</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9997477031826713</v>
+        <v>0.9999441719995443</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0001043256744601267</v>
+        <v>3.007050929946918e-05</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0009893760343435266</v>
+        <v>0.0008873508065744985</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0003253595261071236</v>
+        <v>6.507890550972559e-05</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0003221392345387352</v>
+        <v>2.739584877993008e-06</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0003237470203820885</v>
+        <v>3.390924511278786e-05</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0007970758524219679</v>
+        <v>0.0003164627591308915</v>
       </c>
       <c r="M19" t="n">
-        <v>0.01021399405032756</v>
+        <v>0.005483658386466938</v>
       </c>
       <c r="N19" t="n">
-        <v>1.000092493357469</v>
+        <v>1.000026659998896</v>
       </c>
       <c r="O19" t="n">
-        <v>0.01064882492293249</v>
+        <v>0.005717109076716589</v>
       </c>
       <c r="P19" t="n">
-        <v>124.3359861330343</v>
+        <v>126.8239312479565</v>
       </c>
       <c r="Q19" t="n">
-        <v>188.9364048510489</v>
+        <v>191.4243499659711</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_36_2_18</t>
+          <t>model_36_2_5</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9998845842502638</v>
+        <v>0.9999677858346675</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9989330109164879</v>
+        <v>0.9990493920370204</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9916455586819946</v>
+        <v>0.9998802817037146</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9995501567244692</v>
+        <v>0.999995917576484</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9997390875645423</v>
+        <v>0.9999441719995443</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0001077355362127762</v>
+        <v>3.007050929946918e-05</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0009959874740507481</v>
+        <v>0.0008873508065744985</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0003446252234161131</v>
+        <v>6.507890550972559e-05</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0003249848956649026</v>
+        <v>2.739584877993008e-06</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0003348025728361975</v>
+        <v>3.390924511278786e-05</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0008035417138875884</v>
+        <v>0.0003164627591308915</v>
       </c>
       <c r="M20" t="n">
-        <v>0.01037957302651589</v>
+        <v>0.005483658386466938</v>
       </c>
       <c r="N20" t="n">
-        <v>1.00009551648254</v>
+        <v>1.000026659998896</v>
       </c>
       <c r="O20" t="n">
-        <v>0.0108214529389329</v>
+        <v>0.005717109076716589</v>
       </c>
       <c r="P20" t="n">
-        <v>124.2716621453498</v>
+        <v>126.8239312479565</v>
       </c>
       <c r="Q20" t="n">
-        <v>188.8720808633644</v>
+        <v>191.4243499659711</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_36_2_19</t>
+          <t>model_36_2_4</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9998811690053887</v>
+        <v>0.9999677858346675</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9989264983217317</v>
+        <v>0.9990493920370204</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9912089704555005</v>
+        <v>0.9998802817037146</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9995465882442354</v>
+        <v>0.999995917576484</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9997310656809365</v>
+        <v>0.9999441719995443</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0001109235173918048</v>
+        <v>3.007050929946918e-05</v>
       </c>
       <c r="H21" t="n">
-        <v>0.001002066695385735</v>
+        <v>0.0008873508065744985</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0003626347239164141</v>
+        <v>6.507890550972559e-05</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0003275629094745878</v>
+        <v>2.739584877993008e-06</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0003450962457518892</v>
+        <v>3.390924511278786e-05</v>
       </c>
       <c r="L21" t="n">
-        <v>0.000809244545487377</v>
+        <v>0.0003164627591308915</v>
       </c>
       <c r="M21" t="n">
-        <v>0.01053202342343601</v>
+        <v>0.005483658386466938</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000098342892092</v>
+        <v>1.000026659998896</v>
       </c>
       <c r="O21" t="n">
-        <v>0.01098039346486573</v>
+        <v>0.005717109076716589</v>
       </c>
       <c r="P21" t="n">
-        <v>124.2133392533004</v>
+        <v>126.8239312479565</v>
       </c>
       <c r="Q21" t="n">
-        <v>188.813757971315</v>
+        <v>191.4243499659711</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_36_2_20</t>
+          <t>model_36_2_3</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9998778439262714</v>
+        <v>0.9999677858346675</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9989201413461981</v>
+        <v>0.9990493920370204</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9907868235147951</v>
+        <v>0.9998802817037146</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9995430975314593</v>
+        <v>0.999995917576484</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9997232971419178</v>
+        <v>0.9999441719995443</v>
       </c>
       <c r="G22" t="n">
-        <v>0.000114027332793731</v>
+        <v>3.007050929946918e-05</v>
       </c>
       <c r="H22" t="n">
-        <v>0.001008000653007472</v>
+        <v>0.0008873508065744985</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0003800485135664172</v>
+        <v>6.507890550972559e-05</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0003300847409412424</v>
+        <v>2.739584877993008e-06</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0003550648271500543</v>
+        <v>3.390924511278786e-05</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0008150574072987438</v>
+        <v>0.0003164627591308915</v>
       </c>
       <c r="M22" t="n">
-        <v>0.01067835815065832</v>
+        <v>0.005483658386466938</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000101094681706</v>
+        <v>1.000026659998896</v>
       </c>
       <c r="O22" t="n">
-        <v>0.01113295796438054</v>
+        <v>0.005717109076716589</v>
       </c>
       <c r="P22" t="n">
-        <v>124.1581447539188</v>
+        <v>126.8239312479565</v>
       </c>
       <c r="Q22" t="n">
-        <v>188.7585634719335</v>
+        <v>191.4243499659711</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_36_2_21</t>
+          <t>model_36_2_2</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9998746956063193</v>
+        <v>0.9999677858346675</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9989141109688499</v>
+        <v>0.9990493920370204</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9903825582272403</v>
+        <v>0.9998802817037146</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9995401361729991</v>
+        <v>0.999995917576484</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9997159642314418</v>
+        <v>0.9999441719995443</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0001169661512737926</v>
+        <v>3.007050929946918e-05</v>
       </c>
       <c r="H23" t="n">
-        <v>0.001013629745559022</v>
+        <v>0.0008873508065744985</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0003967246753514848</v>
+        <v>6.507890550972559e-05</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0003322241455351833</v>
+        <v>2.739584877993008e-06</v>
       </c>
       <c r="K23" t="n">
-        <v>0.000364474410443334</v>
+        <v>3.390924511278786e-05</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0008203439985752205</v>
+        <v>0.0003164627591308915</v>
       </c>
       <c r="M23" t="n">
-        <v>0.01081508905528718</v>
+        <v>0.005483658386466938</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000103700187874</v>
+        <v>1.000026659998896</v>
       </c>
       <c r="O23" t="n">
-        <v>0.01127550978669145</v>
+        <v>0.005717109076716589</v>
       </c>
       <c r="P23" t="n">
-        <v>124.1072519407512</v>
+        <v>126.8239312479565</v>
       </c>
       <c r="Q23" t="n">
-        <v>188.7076706587658</v>
+        <v>191.4243499659711</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_36_2_22</t>
+          <t>model_36_2_1</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9998717765824094</v>
+        <v>0.9999677858346675</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9989086142534411</v>
+        <v>0.9990493920370204</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9900107240564906</v>
+        <v>0.9998802817037146</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9995373028311823</v>
+        <v>0.999995917576484</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9997091837893681</v>
+        <v>0.9999441719995443</v>
       </c>
       <c r="G24" t="n">
-        <v>0.000119690931963269</v>
+        <v>3.007050929946918e-05</v>
       </c>
       <c r="H24" t="n">
-        <v>0.001018760688115186</v>
+        <v>0.0008873508065744985</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0004120630360258512</v>
+        <v>6.507890550972559e-05</v>
       </c>
       <c r="J24" t="n">
-        <v>0.000334271065751232</v>
+        <v>2.739584877993008e-06</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0003731750668427057</v>
+        <v>3.390924511278786e-05</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0008250753785764513</v>
+        <v>0.0003164627591308915</v>
       </c>
       <c r="M24" t="n">
-        <v>0.01094033509373771</v>
+        <v>0.005483658386466938</v>
       </c>
       <c r="N24" t="n">
-        <v>1.000106115931799</v>
+        <v>1.000026659998896</v>
       </c>
       <c r="O24" t="n">
-        <v>0.01140608780829386</v>
+        <v>0.005717109076716589</v>
       </c>
       <c r="P24" t="n">
-        <v>124.0611954092673</v>
+        <v>126.8239312479565</v>
       </c>
       <c r="Q24" t="n">
-        <v>188.661614127282</v>
+        <v>191.4243499659711</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_36_2_23</t>
+          <t>model_36_2_11</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9998689593441077</v>
+        <v>0.9999677858346675</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9989032147622696</v>
+        <v>0.9990493920370204</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9896491125136737</v>
+        <v>0.9998802817037146</v>
       </c>
       <c r="E25" t="n">
-        <v>0.999534748623115</v>
+        <v>0.999995917576484</v>
       </c>
       <c r="F25" t="n">
-        <v>0.999702658728656</v>
+        <v>0.9999441719995443</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0001223207002554939</v>
+        <v>3.007050929946918e-05</v>
       </c>
       <c r="H25" t="n">
-        <v>0.001023800876113548</v>
+        <v>0.0008873508065744985</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0004269797077684044</v>
+        <v>6.507890550972559e-05</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0003361163285069425</v>
+        <v>2.739584877993008e-06</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0003815480181376734</v>
+        <v>3.390924511278786e-05</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0008297317039838615</v>
+        <v>0.0003164627591308915</v>
       </c>
       <c r="M25" t="n">
-        <v>0.01105986890769931</v>
+        <v>0.005483658386466938</v>
       </c>
       <c r="N25" t="n">
-        <v>1.000108447439359</v>
+        <v>1.000026659998896</v>
       </c>
       <c r="O25" t="n">
-        <v>0.0115307104241849</v>
+        <v>0.005717109076716589</v>
       </c>
       <c r="P25" t="n">
-        <v>124.0177285431531</v>
+        <v>126.8239312479565</v>
       </c>
       <c r="Q25" t="n">
-        <v>188.6181472611677</v>
+        <v>191.4243499659711</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9998663423633978</v>
+        <v>0.9999677858346675</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9988982000549852</v>
+        <v>0.9990493920370204</v>
       </c>
       <c r="D26" t="n">
-        <v>0.989311529869166</v>
+        <v>0.9998802817037146</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9995325499103814</v>
+        <v>0.999995917576484</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9996966122277576</v>
+        <v>0.9999441719995443</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0001247635368760087</v>
+        <v>3.007050929946918e-05</v>
       </c>
       <c r="H26" t="n">
-        <v>0.001028481885243284</v>
+        <v>0.0008873508065744985</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0004409051744580949</v>
+        <v>6.507890550972559e-05</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0003377047671191771</v>
+        <v>2.739584877993008e-06</v>
       </c>
       <c r="K26" t="n">
-        <v>0.000389306881964452</v>
+        <v>3.390924511278786e-05</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0008340541867287128</v>
+        <v>0.0003164627591308915</v>
       </c>
       <c r="M26" t="n">
-        <v>0.01116975992920209</v>
+        <v>0.005483658386466938</v>
       </c>
       <c r="N26" t="n">
-        <v>1.000110613216498</v>
+        <v>1.000026659998896</v>
       </c>
       <c r="O26" t="n">
-        <v>0.01164527973397883</v>
+        <v>0.005717109076716589</v>
       </c>
       <c r="P26" t="n">
-        <v>123.978180634375</v>
+        <v>126.8239312479565</v>
       </c>
       <c r="Q26" t="n">
-        <v>188.5785993523897</v>
+        <v>191.4243499659711</v>
       </c>
     </row>
   </sheetData>
